--- a/charts/p18/p18_data.xlsx
+++ b/charts/p18/p18_data.xlsx
@@ -12,6 +12,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lovers" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Neutral" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Haters" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RawData" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calculation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataSources" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Thresholds" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -602,7 +606,7 @@
         <v>5</v>
       </c>
       <c r="G2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -921,4 +925,1107 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>原始数据详情 - 用于人工检查和解释</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>月份</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>正向提及数</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中性提及数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>负向提及数</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>总提及数</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Lovers%计算</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Neutral%计算</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Haters%计算</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>NetLovers%计算</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2025-03</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2025-04</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2025-05</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-06</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-07</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>无数据</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2056</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2558</v>
+      </c>
+      <c r="D9" t="n">
+        <v>873</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5487</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2056/5487*100 = 37%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2558/5487*100 = 47%</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>873/5487*100 = 16%</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>37 - 16 = 21%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>计算过程详情 - 展示具体的计算逻辑和公式</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>计算公式说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>指标</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>计算公式</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>阈值条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Lovers%</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>正向提及数 / 总提及数 × 100</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>polarity &gt;= 0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Neutral%</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>中性提及数 / 总提及数 × 100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>-0.33 &lt; polarity &lt; 0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Haters%</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>负向提及数 / 总提及数 × 100</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>polarity &lt;= -0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>NetLovers%</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lovers% - Haters%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>数据处理说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>步骤</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1. 数据过滤</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>国家ID = 39 (France)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2. 品牌匹配</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>关键词包含: %lenovo%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3. 情感分类</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>使用 polarity 字段进行情感分类</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4. 月度聚合</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>按月份聚合各情感类别的提及数</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>5. 百分比计算</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>各类别数量除以总数乘以100，四舍五入到整数</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>数据源详细信息 - 便于追溯和验证</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>配置信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>项目</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>值</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>数据库路径</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>/Users/jinghai/coder/gen_ppt/input/neticle-v4-08.sqlite</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>情感分析数据来源</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>数据表名</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mentions_wide</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>使用的数据表</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>国家ID</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>39</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>目标国家: France</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>品牌关键词</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>目标品牌</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>关键词匹配</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>%lenovo%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>数据库查询条件</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>情感字段</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>polarity</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>用于情感分类的字段</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>月份配置</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>类型</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>月份列表</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>用途</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>主趋势月份</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-03, 2025-04, 2025-05, 2025-06, 2025-07, 2025-08</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NetLovers%趋势图和排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>分割月份</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-05, 2025-06, 2025-07, 2025-08</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Lovers/Neutral/Haters三小图</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>自动发现</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>是否自动发现可用月份</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>数据更新状态</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>数据类型</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>更新数量</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>总数量</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>更新率</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>主趋势</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>6</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>16.7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Lovers</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>4</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Neutral</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Haters</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>25.0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>排名</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.7%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>情感分析阈值配置 - 用于理解分类标准</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>情感阈值设置</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>情感类别</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>阈值条件</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>数值范围</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>正向 (Lovers)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>polarity &gt;= 0.33</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[0.33, +∞)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>积极正面的提及</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>中性 (Neutral)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.33 &lt; polarity &lt; 0.33</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>(-0.33, 0.33)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>中性客观的提及</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>负向 (Haters)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>polarity &lt;= -0.33</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>(-∞, -0.33]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>消极负面的提及</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>排名计算</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>参与品牌</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>lenovo, dell, hp, asus, acer, apple, samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>排名依据</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>NetLovers% (Lovers% - Haters%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>排序方式</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>降序 (NetLovers%越高排名越靠前)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>数据质量检查</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>检查项</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>状态</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>说明</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>数据库文件</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>/Users/jinghai/coder/gen_ppt/input/neticle-v4-08.sqlite</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>计算数据</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>共更新5个数据点</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>模板数据</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>正常</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>作为基线数据使用</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/charts/p18/p18_data.xlsx
+++ b/charts/p18/p18_data.xlsx
@@ -1202,30 +1202,30 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2056</v>
+        <v>2046</v>
       </c>
       <c r="C9" t="n">
-        <v>2558</v>
+        <v>2563</v>
       </c>
       <c r="D9" t="n">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="E9" t="n">
-        <v>5487</v>
+        <v>5483</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2056/5487*100 = 37%</t>
+          <t>2046/5483*100 = 37%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2558/5487*100 = 47%</t>
+          <t>2563/5483*100 = 47%</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>873/5487*100 = 16%</t>
+          <t>874/5483*100 = 16%</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>/Users/jinghai/coder/gen_ppt/input/neticle-v4-08.sqlite</t>
+          <t>/Users/jinghai/coder/neticle/neticle-ppt/input/neticle-v5-08-etl.sqlite</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1987,7 +1987,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/Users/jinghai/coder/gen_ppt/input/neticle-v4-08.sqlite</t>
+          <t>/Users/jinghai/coder/neticle/neticle-ppt/input/neticle-v5-08-etl.sqlite</t>
         </is>
       </c>
     </row>
